--- a/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>222895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198521</v>
+        <v>197893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>246689</v>
+        <v>246203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3322141792348796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2958859888664285</v>
+        <v>0.2949501838087852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.367677780720981</v>
+        <v>0.366954717675283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>268</v>
@@ -763,19 +763,19 @@
         <v>285484</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>262786</v>
+        <v>259093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>312879</v>
+        <v>312630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4289244860881307</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3948223044121742</v>
+        <v>0.3892741193903378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.470085012877081</v>
+        <v>0.4697108859067078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>487</v>
@@ -784,19 +784,19 @@
         <v>508378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>471217</v>
+        <v>473204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>545806</v>
+        <v>543812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3803755354568185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3525709376905354</v>
+        <v>0.3540573192237591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4083791081941098</v>
+        <v>0.4068875185768555</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>180699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158750</v>
+        <v>157827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204551</v>
+        <v>204879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2693236509925161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2366094324149658</v>
+        <v>0.2352340044402111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3048729319436259</v>
+        <v>0.305361819114597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -834,19 +834,19 @@
         <v>154848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135756</v>
+        <v>134518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176278</v>
+        <v>178589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2326511534607996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2039666858403871</v>
+        <v>0.2021059499926489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2648492761982444</v>
+        <v>0.2683208306886084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -855,19 +855,19 @@
         <v>335547</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>304380</v>
+        <v>303145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>367515</v>
+        <v>367453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.251060890024823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2277410326597328</v>
+        <v>0.2268168579893382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2749795195075568</v>
+        <v>0.2749333746411994</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>177347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155095</v>
+        <v>154391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>204216</v>
+        <v>201638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2643273576534748</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2311621187483384</v>
+        <v>0.2301119893898612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3043747367538958</v>
+        <v>0.3005322386060297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -905,19 +905,19 @@
         <v>163490</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>142899</v>
+        <v>141549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187690</v>
+        <v>185147</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2456358595475563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2146978174008739</v>
+        <v>0.2126701860398746</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2819946932583383</v>
+        <v>0.2781740427719059</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>336</v>
@@ -926,19 +926,19 @@
         <v>340837</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>309940</v>
+        <v>309737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>372601</v>
+        <v>375943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.255019064381623</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2319011057473494</v>
+        <v>0.2317496625123424</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2787851177719515</v>
+        <v>0.2812858735159537</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>82956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67784</v>
+        <v>67326</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102038</v>
+        <v>99220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1236424150221463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1010287505434763</v>
+        <v>0.1003463098474405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1520835639103323</v>
+        <v>0.1478822959130017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -976,19 +976,19 @@
         <v>57451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44572</v>
+        <v>44609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72288</v>
+        <v>71551</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08631697383538371</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0669671966219882</v>
+        <v>0.06702339219448858</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1086089242127572</v>
+        <v>0.1075017661898297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -997,19 +997,19 @@
         <v>140407</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118540</v>
+        <v>120236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162257</v>
+        <v>164620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.10505449065681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08869320280413762</v>
+        <v>0.08996247750315139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1214025401967559</v>
+        <v>0.1231711268685974</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>7040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2973</v>
+        <v>3006</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13161</v>
+        <v>14079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01049239709698321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004430583957146515</v>
+        <v>0.004480576684747931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01961529146491774</v>
+        <v>0.02098466950286059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1047,19 +1047,19 @@
         <v>4307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9445</v>
+        <v>9653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006471527068129653</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002483218692499117</v>
+        <v>0.002489754754678653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01419081800440873</v>
+        <v>0.01450251450617937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1068,19 +1068,19 @@
         <v>11347</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5954</v>
+        <v>5824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19245</v>
+        <v>19152</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008490019479925493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004455033837921665</v>
+        <v>0.004357920475524408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01439917032775648</v>
+        <v>0.01432962141532821</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>274312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>245644</v>
+        <v>247778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302714</v>
+        <v>303329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2694710266270976</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2413090454502946</v>
+        <v>0.2434055907701724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2973715244920669</v>
+        <v>0.2979762065429329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>298</v>
@@ -1193,19 +1193,19 @@
         <v>337607</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>306303</v>
+        <v>305226</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>371958</v>
+        <v>368455</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3241323376825855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2940775979661106</v>
+        <v>0.2930438218378937</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3571126625112602</v>
+        <v>0.3537493248275628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>560</v>
@@ -1214,19 +1214,19 @@
         <v>611919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>569395</v>
+        <v>569254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>655210</v>
+        <v>653953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2971149513683253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.276467515674942</v>
+        <v>0.276399152198712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3181348807335956</v>
+        <v>0.3175244890168868</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>305167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>276405</v>
+        <v>275959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>334930</v>
+        <v>336556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2997820415259873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2715276914287342</v>
+        <v>0.271089316822281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3290190189035263</v>
+        <v>0.3306167830850075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -1264,19 +1264,19 @@
         <v>339636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309009</v>
+        <v>306974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>372695</v>
+        <v>371986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3260809623429812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2966761344043713</v>
+        <v>0.2947223995235382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3578202443385305</v>
+        <v>0.3571396027094297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -1285,19 +1285,19 @@
         <v>644804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>600862</v>
+        <v>605184</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>688332</v>
+        <v>691129</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3130822235706969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2917464881383074</v>
+        <v>0.2938449164241306</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3342171302659482</v>
+        <v>0.3355752940026288</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>310324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>281128</v>
+        <v>281865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>340524</v>
+        <v>340313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3048473542741165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2761668672062045</v>
+        <v>0.2768905128965674</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3345146251705108</v>
+        <v>0.3343071067001115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>271</v>
@@ -1335,19 +1335,19 @@
         <v>276214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>247040</v>
+        <v>250501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>304516</v>
+        <v>306395</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2651894945883739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2371798963217198</v>
+        <v>0.2405026863228674</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2923624599919755</v>
+        <v>0.2941666667281552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>556</v>
@@ -1356,19 +1356,19 @@
         <v>586537</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546368</v>
+        <v>543348</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>630365</v>
+        <v>629308</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.28479114143579</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2652868798155931</v>
+        <v>0.2638205422660629</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3060716221358236</v>
+        <v>0.3055581505683618</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>109580</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90346</v>
+        <v>89898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131706</v>
+        <v>131647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1076462069234177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0887517394859772</v>
+        <v>0.08831170084442269</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1293819679044071</v>
+        <v>0.1293242241061889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1406,19 +1406,19 @@
         <v>83061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67217</v>
+        <v>66835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101713</v>
+        <v>101293</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07974547663946972</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06453376759343843</v>
+        <v>0.06416752038515702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09765334482069203</v>
+        <v>0.097250527354306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -1427,19 +1427,19 @@
         <v>192641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168284</v>
+        <v>167560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220386</v>
+        <v>221420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09353594002162677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08170973396949718</v>
+        <v>0.08135795087414399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1070074319909486</v>
+        <v>0.1075098275955153</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>18581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11405</v>
+        <v>11743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27841</v>
+        <v>30041</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01825337064938093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01120419448607046</v>
+        <v>0.01153615375543898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0273498018143596</v>
+        <v>0.02951052066000757</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1477,19 +1477,19 @@
         <v>5053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10629</v>
+        <v>11414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00485172874658964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001848625713023001</v>
+        <v>0.001851858820222908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01020516321862715</v>
+        <v>0.01095881246488445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1498,19 +1498,19 @@
         <v>23635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15141</v>
+        <v>15740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34710</v>
+        <v>35759</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01147574360356109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007351862114608754</v>
+        <v>0.007642433110023108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01685328110164344</v>
+        <v>0.01736253308466643</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>181625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160396</v>
+        <v>160006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208550</v>
+        <v>207351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.24002963649192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2119738295904006</v>
+        <v>0.2114577683856523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2756118416630557</v>
+        <v>0.2740277433826482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1623,19 +1623,19 @@
         <v>214645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189402</v>
+        <v>190778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243623</v>
+        <v>242050</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.274334850642413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2420716632918773</v>
+        <v>0.2438308422543869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3113708068353798</v>
+        <v>0.3093611043190492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>359</v>
@@ -1644,19 +1644,19 @@
         <v>396270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>361898</v>
+        <v>362274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>435192</v>
+        <v>433627</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2574691130964871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2351362408527928</v>
+        <v>0.2353806275967895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2827578152093537</v>
+        <v>0.281741108633032</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>214961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188041</v>
+        <v>190701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239080</v>
+        <v>241129</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2840845596015828</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2485082749981792</v>
+        <v>0.2520231872956785</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3159597129505267</v>
+        <v>0.3186680265166655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -1694,19 +1694,19 @@
         <v>256894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>232364</v>
+        <v>227984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>286108</v>
+        <v>284243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3283326052741051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2969815330985723</v>
+        <v>0.2913831601237667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3656705181530134</v>
+        <v>0.3632873732357578</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>438</v>
@@ -1715,19 +1715,19 @@
         <v>471855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>434286</v>
+        <v>435429</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>506590</v>
+        <v>509137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3065785966280993</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2821690490307964</v>
+        <v>0.2829114633671867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3291472271074146</v>
+        <v>0.3308021229977191</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>260866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>236265</v>
+        <v>233046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>291716</v>
+        <v>287599</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3447506683509486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3122400141833397</v>
+        <v>0.3079848976247977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3855209904491503</v>
+        <v>0.3800800981108315</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>248</v>
@@ -1765,19 +1765,19 @@
         <v>255288</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>226785</v>
+        <v>228251</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>282357</v>
+        <v>283045</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3262806341209653</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2898505263434992</v>
+        <v>0.2917247662391739</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3608770181847134</v>
+        <v>0.361755902730903</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>485</v>
@@ -1786,19 +1786,19 @@
         <v>516154</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>479288</v>
+        <v>474510</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>553728</v>
+        <v>552551</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3353611997871817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3114078885237156</v>
+        <v>0.3083036780465984</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3597739457305947</v>
+        <v>0.3590095754009704</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>92881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74351</v>
+        <v>74078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113659</v>
+        <v>111022</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1227481366142537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09825988320102956</v>
+        <v>0.09789828197046627</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1502075590387573</v>
+        <v>0.1467223437033967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1836,19 +1836,19 @@
         <v>50848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37381</v>
+        <v>38004</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65021</v>
+        <v>67682</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06498844913475166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04777638124135008</v>
+        <v>0.04857238833010522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08310182731445379</v>
+        <v>0.08650304484640622</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -1857,19 +1857,19 @@
         <v>143729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122405</v>
+        <v>124880</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167826</v>
+        <v>168454</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0933852906612456</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07953038356516461</v>
+        <v>0.08113869927408772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1090418941296298</v>
+        <v>0.109449674201193</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>6346</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2119</v>
+        <v>2098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12973</v>
+        <v>12668</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008386998941294806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002800091490767236</v>
+        <v>0.002773148855849331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01714500957669159</v>
+        <v>0.0167420066048582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1907,19 +1907,19 @@
         <v>4744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11405</v>
+        <v>10610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006063460827764949</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002403960973824459</v>
+        <v>0.002400177125327886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01457717422275693</v>
+        <v>0.01355997557146172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>11090</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5857</v>
+        <v>5278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19908</v>
+        <v>18398</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007205799826986363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003805265053096505</v>
+        <v>0.003429550184822274</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01293483543681972</v>
+        <v>0.01195349751534659</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>271242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245133</v>
+        <v>243315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>299514</v>
+        <v>298873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2922285116736131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.264099053958806</v>
+        <v>0.2621404044732265</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.322687449817266</v>
+        <v>0.3219969272464386</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -2053,19 +2053,19 @@
         <v>371435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>340430</v>
+        <v>338444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>404636</v>
+        <v>403656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3600659243051305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3300106717466597</v>
+        <v>0.3280853930722055</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3922511588734885</v>
+        <v>0.3913011096999593</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>594</v>
@@ -2074,19 +2074,19 @@
         <v>642677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>602309</v>
+        <v>600828</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>685841</v>
+        <v>686714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3279366362233537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3073382619746733</v>
+        <v>0.3065824963783839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3499619235001962</v>
+        <v>0.3504074102180757</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>291047</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>259466</v>
+        <v>264024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>318565</v>
+        <v>319379</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3135654972313651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2795410659414767</v>
+        <v>0.284452313961091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3432130856090854</v>
+        <v>0.344089388875497</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>310</v>
@@ -2124,19 +2124,19 @@
         <v>333547</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>306061</v>
+        <v>302097</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>367866</v>
+        <v>363820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3233376393765075</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2966936011368505</v>
+        <v>0.2928509604777241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.356606064789062</v>
+        <v>0.3526843725211455</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>597</v>
@@ -2145,19 +2145,19 @@
         <v>624593</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>582245</v>
+        <v>583982</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>668929</v>
+        <v>668252</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3187093382963528</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2971002425302935</v>
+        <v>0.2979864717932538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3413321241471538</v>
+        <v>0.3409866877401461</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>264344</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>238304</v>
+        <v>239204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>292559</v>
+        <v>292836</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.284797196706012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2567421035550926</v>
+        <v>0.257711916258177</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3151952213089712</v>
+        <v>0.315493319855689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>246</v>
@@ -2195,19 +2195,19 @@
         <v>255754</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>227752</v>
+        <v>226865</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>283044</v>
+        <v>282683</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2479261086469384</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2207806585467031</v>
+        <v>0.2199208305952843</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2743806762764734</v>
+        <v>0.2740304465630591</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>508</v>
@@ -2216,19 +2216,19 @@
         <v>520099</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>484415</v>
+        <v>480642</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>558468</v>
+        <v>566400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2653890655048795</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2471809708607774</v>
+        <v>0.2452557127068325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2849676746903284</v>
+        <v>0.2890149750933688</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>86940</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71247</v>
+        <v>70133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104098</v>
+        <v>104380</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09366674015231712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07675926297479801</v>
+        <v>0.07555943366696145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1121527313321972</v>
+        <v>0.1124558612108133</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2266,19 +2266,19 @@
         <v>59155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45806</v>
+        <v>45814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75378</v>
+        <v>75050</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05734476375322221</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04440419831072567</v>
+        <v>0.04441126571201136</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07307130976728914</v>
+        <v>0.0727530168221535</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>149</v>
@@ -2287,19 +2287,19 @@
         <v>146095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124542</v>
+        <v>121616</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171232</v>
+        <v>169908</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07454764927252973</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0635497324234509</v>
+        <v>0.06205644401427252</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08737390987043321</v>
+        <v>0.08669825881935597</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>14612</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8356</v>
+        <v>8452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23950</v>
+        <v>24787</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01574205423669268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009003020242272966</v>
+        <v>0.00910565721595754</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02580257428063418</v>
+        <v>0.02670467707088008</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2337,19 +2337,19 @@
         <v>11683</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5964</v>
+        <v>5987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19776</v>
+        <v>20860</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01132556391820142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00578136931620101</v>
+        <v>0.005803518286062691</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01917024413575348</v>
+        <v>0.02022169339940767</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2358,19 +2358,19 @@
         <v>26295</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17501</v>
+        <v>16305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38332</v>
+        <v>37729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01341731070288433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008929998638991918</v>
+        <v>0.008320127430969951</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01955943473578934</v>
+        <v>0.01925186105542774</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>950074</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>902462</v>
+        <v>900020</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1006746</v>
+        <v>1003908</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2816064742580003</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2674939834252215</v>
+        <v>0.2667700810767868</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2984044031092541</v>
+        <v>0.2975629893563195</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1079</v>
@@ -2483,19 +2483,19 @@
         <v>1209170</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1150766</v>
+        <v>1145411</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1269928</v>
+        <v>1263901</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3434025424249811</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3268156207024254</v>
+        <v>0.3252949423780541</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3606574700653378</v>
+        <v>0.358945797102861</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2000</v>
@@ -2504,19 +2504,19 @@
         <v>2159245</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2078706</v>
+        <v>2081151</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2235790</v>
+        <v>2235904</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3131649607575122</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3014841156721833</v>
+        <v>0.3018386450007376</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3242667127590652</v>
+        <v>0.3242831838892518</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>991874</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>940255</v>
+        <v>942029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1053123</v>
+        <v>1047663</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2939962157012802</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2786961363918242</v>
+        <v>0.2792217643495844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3121506987965655</v>
+        <v>0.3105323157004933</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1034</v>
@@ -2554,19 +2554,19 @@
         <v>1084925</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1028189</v>
+        <v>1029842</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1140330</v>
+        <v>1140982</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3081171351379859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2920040155043136</v>
+        <v>0.2924736351275082</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3238520546781878</v>
+        <v>0.3240372258562959</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1969</v>
@@ -2575,19 +2575,19 @@
         <v>2076800</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1992995</v>
+        <v>1998276</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2153100</v>
+        <v>2156663</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3012075943313867</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2890530909888865</v>
+        <v>0.2898189520196033</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3122738488603824</v>
+        <v>0.3127905257131768</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>1012881</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>963113</v>
+        <v>961547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1070266</v>
+        <v>1068594</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3002226705510283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2854711404096202</v>
+        <v>0.2850069720474419</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3172319792558432</v>
+        <v>0.3167364031632703</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>933</v>
@@ -2625,19 +2625,19 @@
         <v>950747</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>899169</v>
+        <v>901402</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1004651</v>
+        <v>1008222</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2700106402542993</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2553626970539248</v>
+        <v>0.2559968039174605</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2853192794615344</v>
+        <v>0.2863334755695775</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1885</v>
@@ -2646,19 +2646,19 @@
         <v>1963628</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1885188</v>
+        <v>1894005</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2035355</v>
+        <v>2034384</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2847937609371378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2734172937940065</v>
+        <v>0.2746961353609518</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2951967647308293</v>
+        <v>0.2950558397325695</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>372357</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>338878</v>
+        <v>335075</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>413399</v>
+        <v>408870</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1103684566826233</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1004449871629577</v>
+        <v>0.09931783666305929</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1225333904614193</v>
+        <v>0.1211910286176097</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>247</v>
@@ -2696,19 +2696,19 @@
         <v>250515</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>224861</v>
+        <v>222928</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>280752</v>
+        <v>283803</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07114590842414353</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0638602085823049</v>
+        <v>0.06331110025180055</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07973326937694054</v>
+        <v>0.08059974150447172</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>607</v>
@@ -2717,19 +2717,19 @@
         <v>622872</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>575920</v>
+        <v>575445</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>671844</v>
+        <v>673859</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09033798716558246</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08352827668042528</v>
+        <v>0.08345931941159175</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09744055138624003</v>
+        <v>0.0977328358712862</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>46579</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34349</v>
+        <v>35599</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61623</v>
+        <v>64173</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01380618280706789</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01018106146353589</v>
+        <v>0.01055171458947692</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01826527385883132</v>
+        <v>0.01902123597673076</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -2767,19 +2767,19 @@
         <v>25788</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17156</v>
+        <v>16731</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38956</v>
+        <v>37472</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007323773758590055</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00487217570896484</v>
+        <v>0.004751710025196219</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01106341375033448</v>
+        <v>0.01064207930502975</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>71</v>
@@ -2788,19 +2788,19 @@
         <v>72367</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>57399</v>
+        <v>57653</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>89556</v>
+        <v>90596</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01049569680838082</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008324780265313865</v>
+        <v>0.008361644167075253</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01298865462295319</v>
+        <v>0.01313954843010969</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>193689</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171690</v>
+        <v>170161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217155</v>
+        <v>217756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2813495203350614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2493948918561384</v>
+        <v>0.2471743439159017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3154363579486133</v>
+        <v>0.3163090229524654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>529</v>
@@ -3153,19 +3153,19 @@
         <v>275079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>252021</v>
+        <v>254659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>294670</v>
+        <v>297677</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3766310176500628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3450612284488509</v>
+        <v>0.3486731357813901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.403454380238383</v>
+        <v>0.4075716315539003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>787</v>
@@ -3174,19 +3174,19 @@
         <v>468767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>440781</v>
+        <v>435324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503112</v>
+        <v>498630</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3303985231364865</v>
+        <v>0.3303985231364866</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3106733065252266</v>
+        <v>0.3068267491386903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3546052146019835</v>
+        <v>0.3514467020237037</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>272913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246907</v>
+        <v>245609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300749</v>
+        <v>299680</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3964295154054649</v>
+        <v>0.396429515405465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3586535303524467</v>
+        <v>0.3567687205023766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4368647598404732</v>
+        <v>0.4353108178572418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>489</v>
@@ -3224,19 +3224,19 @@
         <v>295590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276684</v>
+        <v>270112</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>321536</v>
+        <v>319314</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4047142380707296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3788283934324888</v>
+        <v>0.369830850150165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4402384303016169</v>
+        <v>0.4371971439060936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>762</v>
@@ -3245,19 +3245,19 @@
         <v>568503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>531984</v>
+        <v>533317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>605332</v>
+        <v>604944</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4006943243837933</v>
+        <v>0.4006943243837934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3749548386433137</v>
+        <v>0.3758943907744264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4266521817717205</v>
+        <v>0.4263789848512873</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>187134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162202</v>
+        <v>163977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>214817</v>
+        <v>214571</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2718284524936432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2356122472209349</v>
+        <v>0.2381902960321435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3120406318073264</v>
+        <v>0.3116827592835079</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>185</v>
@@ -3295,19 +3295,19 @@
         <v>135091</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114937</v>
+        <v>117057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154460</v>
+        <v>156454</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1849634529024385</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1573683785864128</v>
+        <v>0.1602710267752912</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.211483211065846</v>
+        <v>0.2142127863643766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>354</v>
@@ -3316,19 +3316,19 @@
         <v>322225</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>289280</v>
+        <v>290689</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>355246</v>
+        <v>354880</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2271120938263452</v>
+        <v>0.2271120938263453</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2038915764555352</v>
+        <v>0.2048842234442557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2503862300746318</v>
+        <v>0.250127968450491</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>29006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18550</v>
+        <v>17901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43837</v>
+        <v>44307</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04213405726786595</v>
+        <v>0.04213405726786596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02694554122823209</v>
+        <v>0.02600263114732944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06367767033993289</v>
+        <v>0.06435980474182755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3366,19 +3366,19 @@
         <v>22487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14543</v>
+        <v>15055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32316</v>
+        <v>32230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03078820936834157</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01991206006736838</v>
+        <v>0.02061227150802441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04424604861933056</v>
+        <v>0.04412826423871304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3387,19 +3387,19 @@
         <v>51493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39063</v>
+        <v>36844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69215</v>
+        <v>68148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03629344244662198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02753233481983276</v>
+        <v>0.02596863732142837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04878449659507565</v>
+        <v>0.0480323592965505</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>5685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14654</v>
+        <v>16490</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.00825845449796439</v>
+        <v>0.008258454497964394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001902392015547025</v>
+        <v>0.001935711040602054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02128584866835985</v>
+        <v>0.02395386666854729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3437,19 +3437,19 @@
         <v>2120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5864</v>
+        <v>6976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00290308200842742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0005911746739374854</v>
+        <v>0.0005956251049072474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.008029359002295629</v>
+        <v>0.00955144539923692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3458,19 +3458,19 @@
         <v>7806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3309</v>
+        <v>3014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18333</v>
+        <v>16527</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005501616206752762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002332320642923464</v>
+        <v>0.002124224161814604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01292139415163968</v>
+        <v>0.0116488334339495</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>221006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194347</v>
+        <v>192348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249012</v>
+        <v>246828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2108733594087169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1854359545849629</v>
+        <v>0.183528605218884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2375952273033696</v>
+        <v>0.235511613616323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>507</v>
@@ -3583,19 +3583,19 @@
         <v>308659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>283134</v>
+        <v>281364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>333315</v>
+        <v>332564</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2887178589722983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2648420017672599</v>
+        <v>0.2631862739645724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3117805821221539</v>
+        <v>0.3110786765977642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>760</v>
@@ -3604,19 +3604,19 @@
         <v>529666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>491921</v>
+        <v>491560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>565568</v>
+        <v>566690</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2501819799240383</v>
+        <v>0.2501819799240382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2323537853973358</v>
+        <v>0.2321834439131863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2671401144758522</v>
+        <v>0.2676699046178907</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>434258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398940</v>
+        <v>400187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470782</v>
+        <v>470911</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4143479911758626</v>
+        <v>0.4143479911758625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3806487078712082</v>
+        <v>0.3818384563271528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4491970753169096</v>
+        <v>0.4493201880255859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -3654,19 +3654,19 @@
         <v>465725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>438852</v>
+        <v>439937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495727</v>
+        <v>496034</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4356363091965565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4104998770899381</v>
+        <v>0.4115142536219961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4637004916122413</v>
+        <v>0.4639871369459799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1050</v>
@@ -3675,19 +3675,19 @@
         <v>899984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>858229</v>
+        <v>853945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>947165</v>
+        <v>947593</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4250978118976395</v>
+        <v>0.4250978118976394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4053754953826532</v>
+        <v>0.4033519222586788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4473836515157137</v>
+        <v>0.447585866614277</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>317586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>281373</v>
+        <v>284336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>355760</v>
+        <v>356633</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3030250722462055</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2684719704343879</v>
+        <v>0.2712991688308407</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3394491583766124</v>
+        <v>0.3402815747893785</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>327</v>
@@ -3725,19 +3725,19 @@
         <v>262764</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>236353</v>
+        <v>236528</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289235</v>
+        <v>289875</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2457878278948112</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2210834339429831</v>
+        <v>0.221246712326531</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2705485530521819</v>
+        <v>0.2711478044057269</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>575</v>
@@ -3746,19 +3746,19 @@
         <v>580350</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>533720</v>
+        <v>536029</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>626101</v>
+        <v>626323</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2741223606844977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2520972331852169</v>
+        <v>0.2531876361306395</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2957323419098659</v>
+        <v>0.2958371891200676</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>64102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46346</v>
+        <v>46109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87198</v>
+        <v>87857</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06116303643612967</v>
+        <v>0.06116303643612968</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0442208632161065</v>
+        <v>0.04399468540280223</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08319976179824566</v>
+        <v>0.08382907139556064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3796,19 +3796,19 @@
         <v>25239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17468</v>
+        <v>17702</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36403</v>
+        <v>36472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02360870744204073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01633963867054847</v>
+        <v>0.01655860700403482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03405146273625612</v>
+        <v>0.03411601034443191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -3817,19 +3817,19 @@
         <v>89341</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69353</v>
+        <v>69088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113043</v>
+        <v>113319</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04219947606369204</v>
+        <v>0.04219947606369203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03275810527622749</v>
+        <v>0.03263291845379136</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05339477134823856</v>
+        <v>0.05352515102231281</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>11099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4939</v>
+        <v>5062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23630</v>
+        <v>23149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01059054073308531</v>
+        <v>0.01059054073308532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004712390158591698</v>
+        <v>0.00482983654633316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02254621038809895</v>
+        <v>0.02208761280184269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3867,19 +3867,19 @@
         <v>6681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2828</v>
+        <v>3135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15130</v>
+        <v>16135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006249296494293286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002645395980299242</v>
+        <v>0.002932566778603886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01415242562629876</v>
+        <v>0.01509282820895429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -3888,19 +3888,19 @@
         <v>17780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10003</v>
+        <v>9781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32184</v>
+        <v>29774</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008398371430132579</v>
+        <v>0.008398371430132577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004724930915104507</v>
+        <v>0.004619815952391431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01520198873185384</v>
+        <v>0.01406360760787228</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>224579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199087</v>
+        <v>196762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>256439</v>
+        <v>252647</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2796491988707761</v>
+        <v>0.279649198870776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2479070106738241</v>
+        <v>0.2450118481290367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3193227464743869</v>
+        <v>0.3146004566689676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>436</v>
@@ -4013,19 +4013,19 @@
         <v>295922</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>272407</v>
+        <v>270910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>322765</v>
+        <v>321292</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.364626045560596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3356519928738867</v>
+        <v>0.3338069333021186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3977019951135184</v>
+        <v>0.3958862357554442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>658</v>
@@ -4034,19 +4034,19 @@
         <v>520500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>484015</v>
+        <v>478671</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>556656</v>
+        <v>556414</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.322361363903112</v>
+        <v>0.3223613639031122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2997646880238954</v>
+        <v>0.2964548564051934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3447533277316419</v>
+        <v>0.3446036111267193</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>319748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>291034</v>
+        <v>288315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353608</v>
+        <v>354925</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.398156034083615</v>
+        <v>0.3981560340836151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3624004678059426</v>
+        <v>0.359014196929509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4403184335398211</v>
+        <v>0.4419590389278512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>392</v>
@@ -4084,19 +4084,19 @@
         <v>307711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>281930</v>
+        <v>282349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>335355</v>
+        <v>334516</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3791528308120808</v>
+        <v>0.3791528308120809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3473861923574678</v>
+        <v>0.3479021400540558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4132140864636339</v>
+        <v>0.4121808883955743</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>663</v>
@@ -4105,19 +4105,19 @@
         <v>627460</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>589168</v>
+        <v>585673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>671853</v>
+        <v>670197</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3886043975391392</v>
+        <v>0.3886043975391393</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3648895062052916</v>
+        <v>0.3627245755025682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.41609819759211</v>
+        <v>0.4150729120477765</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>199119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>168566</v>
+        <v>168726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>230638</v>
+        <v>230514</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2479469056075866</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.209900669186721</v>
+        <v>0.2101001576116434</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2871943000364374</v>
+        <v>0.2870393912228165</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>188</v>
@@ -4155,19 +4155,19 @@
         <v>177339</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>154249</v>
+        <v>155787</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203196</v>
+        <v>202076</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2185124773032185</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1900607198770965</v>
+        <v>0.1919560641844165</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2503726573165976</v>
+        <v>0.2489923445138447</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>329</v>
@@ -4176,19 +4176,19 @@
         <v>376459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>340432</v>
+        <v>336348</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>419511</v>
+        <v>413728</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2331521914196424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2108397456280011</v>
+        <v>0.2083100468888942</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2598156482266031</v>
+        <v>0.256233771620309</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>56185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39330</v>
+        <v>38936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78377</v>
+        <v>77468</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0699628217944121</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04897402372671024</v>
+        <v>0.04848422288560194</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09759583025215406</v>
+        <v>0.09646470451172154</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4226,19 +4226,19 @@
         <v>26966</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18159</v>
+        <v>16733</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41424</v>
+        <v>40493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03322628876185132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02237439008966744</v>
+        <v>0.0206183181112535</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05104176817511917</v>
+        <v>0.04989399559831615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -4247,19 +4247,19 @@
         <v>83151</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62900</v>
+        <v>64284</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106540</v>
+        <v>106696</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05149782900255109</v>
+        <v>0.0514978290025511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0389557330986018</v>
+        <v>0.03981272932240672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06598314592300109</v>
+        <v>0.06607990824059187</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>3441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9852</v>
+        <v>10062</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004285039643610333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001217800131725143</v>
+        <v>0.001212456524192338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01226804929007388</v>
+        <v>0.01252875283325317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4297,19 +4297,19 @@
         <v>3638</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13892</v>
+        <v>13146</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.004482357562253309</v>
+        <v>0.00448235756225331</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0009019526664898601</v>
+        <v>0.0009067554485513136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01711791551115434</v>
+        <v>0.01619851258854276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4318,19 +4318,19 @@
         <v>7079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2823</v>
+        <v>2705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18498</v>
+        <v>16902</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004384218135555074</v>
+        <v>0.004384218135555075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001748208121747301</v>
+        <v>0.001675261396053818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01145616700422628</v>
+        <v>0.01046766700098445</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>280775</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253122</v>
+        <v>252159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307931</v>
+        <v>307469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.283861915786602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2559043899442823</v>
+        <v>0.2549310790095117</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3113156873278744</v>
+        <v>0.3108491694555022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>637</v>
@@ -4443,19 +4443,19 @@
         <v>403510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376913</v>
+        <v>375825</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>432868</v>
+        <v>432756</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.362038595522123</v>
+        <v>0.3620385955221229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3381755011750698</v>
+        <v>0.3371990165280515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3883791036894277</v>
+        <v>0.3882792510195709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>980</v>
@@ -4464,19 +4464,19 @@
         <v>684286</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>646665</v>
+        <v>645063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>725538</v>
+        <v>724080</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3252807129683894</v>
+        <v>0.3252807129683895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3073974462467097</v>
+        <v>0.3066360027366188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3448904064711989</v>
+        <v>0.344197208761939</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>352774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>320232</v>
+        <v>322234</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>384148</v>
+        <v>387771</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3566521492187447</v>
+        <v>0.3566521492187448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3237524123373499</v>
+        <v>0.3257763619533713</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3883704396376837</v>
+        <v>0.3920333699668618</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>554</v>
@@ -4514,19 +4514,19 @@
         <v>391152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>362530</v>
+        <v>363225</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>421821</v>
+        <v>422004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3509512757067172</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3252705485502859</v>
+        <v>0.3258943968213142</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3784682442974687</v>
+        <v>0.3786322098387797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>917</v>
@@ -4535,19 +4535,19 @@
         <v>743927</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>700187</v>
+        <v>701317</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>789563</v>
+        <v>782987</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3536317686582946</v>
+        <v>0.3536317686582948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3328395692288403</v>
+        <v>0.3333769724470157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.375325033956784</v>
+        <v>0.3721990361275417</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>261320</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>231607</v>
+        <v>230135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>292443</v>
+        <v>292015</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2641921770553819</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2341526026039293</v>
+        <v>0.2326652589660721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2956575790998162</v>
+        <v>0.2952253969764181</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>306</v>
@@ -4585,19 +4585,19 @@
         <v>262641</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>236319</v>
+        <v>235015</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>288212</v>
+        <v>291190</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2356481582110341</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2120312550195036</v>
+        <v>0.2108612837828956</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2585904879760393</v>
+        <v>0.2612624217109865</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>531</v>
@@ -4606,19 +4606,19 @@
         <v>523961</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>482862</v>
+        <v>484749</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>570828</v>
+        <v>565140</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2490692666009234</v>
+        <v>0.2490692666009235</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2295325323244982</v>
+        <v>0.2304292956418088</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.271347962037313</v>
+        <v>0.26864406025656</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>78088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61201</v>
+        <v>59257</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102093</v>
+        <v>100951</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0789468056451882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06187362529743808</v>
+        <v>0.05990811199009435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1032153106265632</v>
+        <v>0.1020611366440119</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -4656,19 +4656,19 @@
         <v>56570</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43694</v>
+        <v>43345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73434</v>
+        <v>74520</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05075625459612168</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0392035992025196</v>
+        <v>0.03888988194894323</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06588629435878206</v>
+        <v>0.06686083442965718</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -4677,19 +4677,19 @@
         <v>134659</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108665</v>
+        <v>110388</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162413</v>
+        <v>163003</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06401116601078216</v>
+        <v>0.06401116601078218</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05165469893412566</v>
+        <v>0.0524736404113754</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0772042753724517</v>
+        <v>0.07748471964360537</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>16169</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8621</v>
+        <v>8837</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27020</v>
+        <v>28236</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01634695229408322</v>
+        <v>0.01634695229408323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008715919409516088</v>
+        <v>0.008933951801396989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02731687813669934</v>
+        <v>0.02854610911500254</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3369</v>
+        <v>3383</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0006057159640041706</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.00302283409575368</v>
+        <v>0.003035529171897944</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4748,19 +4748,19 @@
         <v>16844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9266</v>
+        <v>8686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28665</v>
+        <v>27562</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.008007085761610249</v>
+        <v>0.008007085761610251</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004404759418093655</v>
+        <v>0.004128892501590041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01362609105142223</v>
+        <v>0.0131017962151241</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>920049</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>866279</v>
+        <v>870247</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>972543</v>
+        <v>976781</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2607347003210653</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2454966690308813</v>
+        <v>0.2466212361646926</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2756109251459699</v>
+        <v>0.2768118806199218</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2109</v>
@@ -4873,19 +4873,19 @@
         <v>1283169</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1234476</v>
+        <v>1235415</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1337713</v>
+        <v>1332650</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3444232161355078</v>
+        <v>0.3444232161355077</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3313531734697762</v>
+        <v>0.3316052080049433</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3590636482107268</v>
+        <v>0.3577046043722024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3185</v>
@@ -4894,19 +4894,19 @@
         <v>2203219</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2130243</v>
+        <v>2128942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2279258</v>
+        <v>2276904</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3037146102274753</v>
+        <v>0.3037146102274754</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2936549486207495</v>
+        <v>0.2934754890713158</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3141966202053644</v>
+        <v>0.3138721234903977</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>1379694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1320963</v>
+        <v>1314325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1443705</v>
+        <v>1446314</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3909943760408126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3743503835075585</v>
+        <v>0.3724691905306807</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4091345359845913</v>
+        <v>0.4098740225599607</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2077</v>
@@ -4944,19 +4944,19 @@
         <v>1460178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1411550</v>
+        <v>1406757</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1517239</v>
+        <v>1513970</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3919353052191622</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3788825988120009</v>
+        <v>0.3775961005706415</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4072513876834513</v>
+        <v>0.4063737300462303</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3392</v>
@@ -4965,19 +4965,19 @@
         <v>2839873</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2753831</v>
+        <v>2760130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2921994</v>
+        <v>2925858</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3914776090258908</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3796167827980209</v>
+        <v>0.380485053854289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4027981478542629</v>
+        <v>0.403330694195388</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>965159</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>911125</v>
+        <v>900257</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1026917</v>
+        <v>1031445</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2735185497675039</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2582055680303896</v>
+        <v>0.2551257176483026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2910201676234563</v>
+        <v>0.2923034443847444</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1006</v>
@@ -5015,19 +5015,19 @@
         <v>837836</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>788409</v>
+        <v>787645</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>886935</v>
+        <v>886600</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2248886167343479</v>
+        <v>0.2248886167343478</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2116215881282599</v>
+        <v>0.2114166384948405</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2380674965910909</v>
+        <v>0.2379777091844666</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1789</v>
@@ -5036,19 +5036,19 @@
         <v>1802995</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1724803</v>
+        <v>1723515</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1887028</v>
+        <v>1884755</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2485436757339618</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2377648427067661</v>
+        <v>0.2375873139568923</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2601276179664405</v>
+        <v>0.2598143114581076</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>227382</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>194025</v>
+        <v>192265</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>266394</v>
+        <v>267329</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.06443826065997407</v>
+        <v>0.06443826065997409</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05498521399000175</v>
+        <v>0.05448641664261396</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07549403445542145</v>
+        <v>0.07575905575100997</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>144</v>
@@ -5086,19 +5086,19 @@
         <v>131262</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>110093</v>
+        <v>109022</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>155816</v>
+        <v>153840</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03523282406308954</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02955065575929502</v>
+        <v>0.0292632379281908</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04182339983232367</v>
+        <v>0.04129305806133043</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>313</v>
@@ -5107,19 +5107,19 @@
         <v>358644</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>315273</v>
+        <v>317587</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>404918</v>
+        <v>403058</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04943922499187056</v>
+        <v>0.04943922499187055</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04346051094019831</v>
+        <v>0.04377949167726652</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05581813880055709</v>
+        <v>0.05556170784499188</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>36395</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23824</v>
+        <v>24193</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51490</v>
+        <v>51781</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01031411321064403</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006751488965446452</v>
+        <v>0.006855978295337424</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01459198327878657</v>
+        <v>0.01467444744378342</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5157,19 +5157,19 @@
         <v>13114</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6784</v>
+        <v>7376</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21996</v>
+        <v>24862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003520037847892551</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001820935737681776</v>
+        <v>0.001979880631581533</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005904093920959978</v>
+        <v>0.006673492657280265</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -5178,19 +5178,19 @@
         <v>49509</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>34901</v>
+        <v>35399</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68255</v>
+        <v>68458</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.006824880020801445</v>
+        <v>0.006824880020801444</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004811113188083626</v>
+        <v>0.004879817470543998</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0094089856250461</v>
+        <v>0.009436912887289721</v>
       </c>
     </row>
     <row r="33">
